--- a/11-CollaborationList/Oxford.xlsx
+++ b/11-CollaborationList/Oxford.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A01789-A0A4-934D-93E1-381F3EC50405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76CED27-1C20-4C4B-9546-0A955F22E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{DCF9AB15-4AAE-104C-97FA-8D9237826EDC}"/>
+    <workbookView xWindow="15180" yWindow="7700" windowWidth="27640" windowHeight="16940" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Corerain" sheetId="1" r:id="rId1"/>
+    <sheet name="Oxford" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -67,6 +67,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prof. </t>
   </si>
   <si>
@@ -85,9 +88,15 @@
     <t>A. Giacca</t>
   </si>
   <si>
+    <t>Oxford-Oncology</t>
+  </si>
+  <si>
     <t>Department of Oncology, University of Oxford, Old Road Campus Research Building, Roosevelt Drive, Oxford, OX3 7DQ, UK</t>
   </si>
   <si>
+    <t>Stanford-RadOncol</t>
+  </si>
+  <si>
     <t>Department of Radiation Oncology, Stanford University, Stanford, CA 94305, USA</t>
   </si>
   <si>
@@ -112,10 +121,49 @@
     <t>0000-0002-2335-3146</t>
   </si>
   <si>
-    <t>Stanford-RadOncol</t>
-  </si>
-  <si>
-    <t>Oxford-Oncology</t>
+    <t xml:space="preserve">Philip </t>
+  </si>
+  <si>
+    <t>Burrows</t>
+  </si>
+  <si>
+    <t>P.N.</t>
+  </si>
+  <si>
+    <t>Philip.burrows@physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>Philip N. Burrows</t>
+  </si>
+  <si>
+    <t>Oxford-Physics</t>
+  </si>
+  <si>
+    <t>Particle Physics, Denys Wilkinson Building, Keble Rd, Oxford, OX1 3RH</t>
+  </si>
+  <si>
+    <t>JAI-Oxford</t>
+  </si>
+  <si>
+    <t>John Adams Institute, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Manjit</t>
+  </si>
+  <si>
+    <t>Dosanjh</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>Manjit.Dosanjh@cern.ch  and  manjit.dosanjh@physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>M. Dosanjh</t>
   </si>
 </sst>
 </file>
@@ -439,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -554,30 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -623,14 +647,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -676,238 +694,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -921,24 +708,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3C96C1A-0571-E64A-930E-772E58C828CB}" name="Table1" displayName="Table1" ref="A1:O3" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="A1:O3" xr:uid="{B3C96C1A-0571-E64A-930E-772E58C828CB}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{ED54FD93-AB37-EA48-80FA-043908023E2C}" name="Title" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{B7D249A0-1477-8644-A5D4-54D5013BD202}" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4919BB4B-128A-0D4A-9ECF-0D3A92D32A37}" name="Surname" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{839BC177-9572-904D-A002-1E1BA70F834C}" name="Initials" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2AD52F1D-926D-5647-A40C-E459B88A845E}" name="email address" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{406E644A-BF93-1545-942A-450CA12A6404}" name="Name on Publications " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A97A9F34-0D15-0848-A553-50D89E08EE84}" name="Organisation" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6C6D5917-27B6-9E4D-AA9D-4495A114D198}" name="Address" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{25049967-47FC-7E40-A4A3-5C6E0DE5C65C}" name="Number of affiliations" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E2973B7E-0C3F-A64A-8444-3F4619791AF2}" name="Affiliation code" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{1803E71F-907D-DA41-8455-EEC71D5DA8E4}" name="Affiliation address" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{3D0BBA03-CA3F-934E-8C07-EFEC57AF31B2}" name="Affiliation code2" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{8E0BD0CF-141A-134C-87DD-D541E3776450}" name="Affiliation address3" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{C84ADE45-75F8-7A4A-A3AE-5229EB6C00BD}" name="ORCID " dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{3160FFB6-6BA9-B243-BF4F-BBFF4C504A40}" name="Role" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}" name="Table1" displayName="Table1" ref="A1:P5" totalsRowShown="0">
+  <autoFilter ref="A1:P5" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{F9932CBD-3E63-E141-AFAA-8BEF6C01578C}" name="Title"/>
+    <tableColumn id="2" xr3:uid="{E6C07710-30E2-F940-A3F8-1A093BC9CF16}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{881A7337-7671-F749-B2CF-29A9FDE95118}" name="Surname"/>
+    <tableColumn id="4" xr3:uid="{E063A596-4930-E64B-87EE-B7407C24F380}" name="Initials"/>
+    <tableColumn id="5" xr3:uid="{3958A381-4DD0-CF4D-9B70-8213C7DA35DA}" name="email address"/>
+    <tableColumn id="6" xr3:uid="{26C5E72B-31AD-8F4F-9F7E-D2580F57F82D}" name="Name on Publications "/>
+    <tableColumn id="7" xr3:uid="{4B708770-689F-1049-9C81-0D26D1F8BD62}" name="Organisation"/>
+    <tableColumn id="8" xr3:uid="{8A655CD4-EE72-BE47-8472-A97A45F09ADE}" name="Address"/>
+    <tableColumn id="9" xr3:uid="{194D3CBF-7F45-4F4E-B819-5A22DDD848C3}" name="Number of affiliations"/>
+    <tableColumn id="10" xr3:uid="{8DD34732-0C32-7043-9B99-E4C837CA74DC}" name="Affiliation code"/>
+    <tableColumn id="11" xr3:uid="{2C70DAD5-8F81-CC41-B725-17DA6697F0D2}" name="Affiliation address"/>
+    <tableColumn id="12" xr3:uid="{97F05D6E-1003-EC42-BA83-0D646F513BBA}" name="Affiliation code2"/>
+    <tableColumn id="13" xr3:uid="{5D253F10-F450-1F40-9F2F-030985F57A40}" name="Affiliation address3"/>
+    <tableColumn id="14" xr3:uid="{1FA1C8F7-87F2-0240-B45E-72ACF95D7E3F}" name="ORCID "/>
+    <tableColumn id="15" xr3:uid="{7C042F6F-77EC-5B47-976B-6E54A5FAF791}" name="Role"/>
+    <tableColumn id="16" xr3:uid="{27F76D85-55E9-9641-B353-09F2F8F3C753}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1260,11 +1048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F32382-F073-734B-AC2B-E3E1B21EB921}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D785E4-B585-654B-8BA4-D5D5AF554FA4}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1272,21 +1060,22 @@
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
-    <col min="11" max="11" width="65.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1332,84 +1121,152 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="2"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/11-CollaborationList/Oxford.xlsx
+++ b/11-CollaborationList/Oxford.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76CED27-1C20-4C4B-9546-0A955F22E512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A63FF-5CEB-A54A-8975-4C2485AB3F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="7700" windowWidth="27640" windowHeight="16940" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
+    <workbookView xWindow="6040" yWindow="1480" windowWidth="27640" windowHeight="16940" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxford" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>JAI-Oxford</t>
   </si>
   <si>
-    <t>John Adams Institute, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
-  </si>
-  <si>
     <t>IB</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>M. Dosanjh</t>
+  </si>
+  <si>
+    <t>The John Adams Institute for Accelerator Science,, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
   </si>
 </sst>
 </file>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D785E4-B585-654B-8BA4-D5D5AF554FA4}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
     <col min="8" max="8" width="100.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -1227,10 +1227,10 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1238,19 +1238,19 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>38</v>
@@ -1265,7 +1265,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
